--- a/src/images/ModeleS2Jury.xlsx
+++ b/src/images/ModeleS2Jury.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">BUT 2 INFORMATIQUE</t>
   </si>
   <si>
     <t xml:space="preserve">SEMESTRE 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023 -2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURY DU &lt;date&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Compétences BUT 1</t>
@@ -346,13 +340,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:V9"/>
+  <dimension ref="A2:V58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6"/>
@@ -360,7 +354,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="15" style="0" width="12.15"/>
   </cols>
@@ -414,9 +409,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -439,9 +432,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
@@ -454,7 +445,7 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -463,7 +454,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -472,73 +463,73 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="I8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="M8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="O8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="S8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="T8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="U8" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
